--- a/medicine/Bioéthique/Philippe_Caspar/Philippe_Caspar.xlsx
+++ b/medicine/Bioéthique/Philippe_Caspar/Philippe_Caspar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Caspar, né le 13 juin 1953 à Malmedy, est un médecin, philosophe, essayiste, dramaturge et bioéthicien belge.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Caspar est agrégé de l'enseignement universitaire en philosophie et docteur ès lettres (Louvain, Belgique).
 Il est aussi docteur en médecine et spécialisé dans l'accompagnement des personnes mentalement déficientes adultes. 
 Il est l'auteur de nombreuses publications scientifiques, littéraires et philosophiques.
-Il jouit d'une renommée internationale d'expert en bioéthique[1]
+Il jouit d'une renommée internationale d'expert en bioéthique
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'individualisation des êtres : Aristote, Leibniz et l'immunologie contemporaine, essai, Lethielleux-Le Sycomore, Paris-Namur, 1985[2],[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'individualisation des êtres : Aristote, Leibniz et l'immunologie contemporaine, essai, Lethielleux-Le Sycomore, Paris-Namur, 1985,
 La saisie du zygote humain par l'esprit, essai, Lethielleux-Le Sycomore, Paris-Namur, 1987
-Penser l'embryon : d'Hippocrate à nos jours, essai, Éditions universitaires, coll. « Penser la vie », Paris, 1991[4]
+Penser l'embryon : d'Hippocrate à nos jours, essai, Éditions universitaires, coll. « Penser la vie », Paris, 1991
 Le voyage de Mozart à Prague, théâtre, Chez l'auteur, 1991
 Il combattimento di Clorinda e Pancredi, théâtre, Les Éperonniers, Bruxelles, 1992
 Miserere, poésie, L'Harmattan, Paris, 1994, Coll. « Poètes des cinq continents »
@@ -558,7 +574,7 @@
 L'accompagnement des personnes handicapées mentales, essai, L'Harmattan, Paris, 1994, coll. « Technologie du travail social »
 Peer Gynt ou le hableur, théâtre, L'Harmattan, coll. « Poètes des cinq continents », Paris, 1995
 Beethoven, théâtre, L'Harmattan, coll. « Poètes des cinq continents », Paris, 1996
-L'embryon au IIe siècle, L'Harmattan, Paris, 2003[5],[6]
+L'embryon au IIe siècle, L'Harmattan, Paris, 2003,
 Maladies sexuellement transmissibles, sexualité et institutions, L'Harmattan, Paris, 2003</t>
         </is>
       </c>
